--- a/doc/Zeitplan.xlsx
+++ b/doc/Zeitplan.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t xml:space="preserve">Woche</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">Datenbank, Import IST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RBAC, Auditing</t>
   </si>
   <si>
     <t xml:space="preserve">SOLL Zustand auf CSV, SOLL Zustand anhand von Events</t>
@@ -71,6 +74,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,6 +96,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -169,14 +174,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.8265306122449"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.2959183673469"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -219,13 +224,16 @@
       <c r="B5" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>43</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,7 +246,7 @@
         <v>45</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -251,7 +259,7 @@
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -259,7 +267,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,7 +275,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +283,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +291,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitplan.xlsx
+++ b/doc/Zeitplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="994" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t xml:space="preserve">Woche</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">IST-SOLL Vergleich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reports, SOLL Zustand</t>
   </si>
   <si>
     <t xml:space="preserve">Reports, Alarmierung</t>
@@ -174,14 +177,14 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.2959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.9489795918367"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.3316326530612"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.9489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -253,13 +256,16 @@
       <c r="A9" s="0" t="n">
         <v>46</v>
       </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>47</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,7 +273,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -275,7 +281,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -283,7 +289,7 @@
         <v>50</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -291,7 +297,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Zeitplan.xlsx
+++ b/doc/Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dario\Documents\GitHub\BTI7301-2018-WRAD\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E35BB8-2D86-4BA5-A4E7-F9260F381D42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E2E53A-D754-447C-B531-74C85B44C640}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,16 +75,10 @@
     <t>Aufgrund Verzögerung beim SOLL Zustand, konnte der Vergleich erst später erledigt werden</t>
   </si>
   <si>
-    <t>Reports</t>
-  </si>
-  <si>
     <t>Aufgrund Entscheid Framework</t>
   </si>
   <si>
     <t>SOLL Zustand aus CSV, SOLL Zustand editieren</t>
-  </si>
-  <si>
-    <t>Aufgrund Entscheid Framework und diversen Bugs im Framework (kein Button möglich, neu Laden der Seite usw.)</t>
   </si>
   <si>
     <t>Tests wurde beim jeweiligen Zusammenfügen der Module erledigt</t>
@@ -98,6 +92,12 @@
   </si>
   <si>
     <t>Aufgrund Verzögerung beim IST-SOLL Vergleich, konnten die Reports erst später erledigt werden</t>
+  </si>
+  <si>
+    <t>Web Reports</t>
+  </si>
+  <si>
+    <t>Aufgrund Entscheid Framework und diversen Bugs im Framework (kein Button möglich, Neuladen der Seite usw.)</t>
   </si>
 </sst>
 </file>
@@ -481,7 +481,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -531,7 +531,7 @@
         <v>41</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -545,7 +545,7 @@
         <v>42</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -559,7 +559,7 @@
         <v>43</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -567,13 +567,13 @@
         <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4">
         <v>46</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -600,13 +600,13 @@
         <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>48</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
@@ -620,7 +620,7 @@
         <v>50</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -659,7 +659,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
